--- a/tests/match_eng/BKPowers.xlsx
+++ b/tests/match_eng/BKPowers.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="373">
   <si>
     <t>BKpowers.rpy:709: new "Summon cuddly pet"</t>
   </si>
@@ -627,571 +627,572 @@
     <t>BKpowers.rpy:1189: new "Oni"</t>
   </si>
   <si>
+    <t>BKpowers.rpy:1193: new "Raises brothel security"</t>
+  </si>
+  <si>
+    <t>青楼安全+1，持续5(10)天，理智消耗：1(2)，邪恶值+0(1)</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1197: new "Haniwa"</t>
+  </si>
+  <si>
+    <t>召唤哈尼</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1201: new "Raises brothel maintenance"</t>
+  </si>
+  <si>
+    <t>青楼清洁+1，持续5(10)天，理智消耗：1(2)，邪恶值+0(1)</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1205: new "Demonette"</t>
+  </si>
+  <si>
+    <t>召唤魅魔</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1209: new "Raises brothel advertising"</t>
+  </si>
+  <si>
+    <t>青楼宣传+1，持续5(10)天，理智消耗：1(2)，邪恶值+0(1)</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1213: new "Summon this absolutely adorable and utterly HARMLESS not-at-all evil pet. Pinky swear."</t>
+  </si>
+  <si>
+    <t>召唤一只人畜无害，狂霸酷炫的宠物，骗你是小狗。消耗(全部)理智，邪恶值+3</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1217: new "Large gold generation for the brothel, instant loss of sanity."</t>
+  </si>
+  <si>
+    <t>获得大量金币，数量与女孩的阶级、接待人数有关（收益翻倍）。青楼人气+(50)。消耗(全部)理智，邪恶值+3</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1221: new "Large gain of Obedience and Libido for all girls, instant loss of sanity."</t>
+  </si>
+  <si>
+    <t>所有女孩的服从和性欲+2d6（收益翻倍）。青楼人气+(50)。消耗全部理智，邪恶值+3</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1225: new "Fear generation for all girls with a large mojo yield, instant loss of sanity."</t>
+  </si>
+  <si>
+    <t>所有女孩的恐惧+2d4（收益翻倍），同时产出巫灵。青楼人气+(50)。消耗全部理智，邪恶值+3</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1229: new "Reset all perks and perk trees."</t>
+  </si>
+  <si>
+    <t>重置她的所有天赋和天赋树。消耗理智: 6，邪恶值+3</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1233: new "Regular MC interactions generate Fear. Fear raises faster for all girls. Lasts 10 days."</t>
+  </si>
+  <si>
+    <t>所有女孩的恐惧收益+25%，和女孩进行的所有交互行为都额外+1恐惧值；持续(10)天。消耗理智：5，邪恶值+2</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1237: new "Alters her personality, you can influence the outcome."</t>
+  </si>
+  <si>
+    <t>重新选择她的性格。消耗理智：5，邪恶值+2</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1241: new "Girl swaps her negative Trait for a new one, you can influence the outcome"</t>
+  </si>
+  <si>
+    <t>重新选择她的负面特质；消耗理智：5，邪恶值+2</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1245: new "Turn all free girls in the brothel or farm into slaves"</t>
+  </si>
+  <si>
+    <t>让青楼和农场的所有自由女孩全部变为奴隶；消耗理智：6，邪恶值+3</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1249: new "+2 satisfaction for all customers"</t>
+  </si>
+  <si>
+    <t>所有顾客的满意度+2，持续7天；消耗理智：5，邪恶值+2</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1253: new "Restores her max energy level to all brothel girls, exhausts and hurts her"</t>
+  </si>
+  <si>
+    <t>所有女孩恢复等同于她体力上限的体力，她的体力归零并受伤1d3天。消耗理智：5，邪恶值+2</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1257: new "All girls will receive more gains from classes and quests"</t>
+  </si>
+  <si>
+    <t>所有女孩的课程和任务收益+50%，持续7天。消耗理智：6，邪恶值+3</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1261: new "Farm training and fear generation will be more efficient for all girls"</t>
+  </si>
+  <si>
+    <t>所有女孩在农场的偏好和恐惧收益+100%，持续7天；消耗理智：4，邪恶值+2</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1265: new "All of her reputation will be transferred to another girl of lower or similar rank"</t>
+  </si>
+  <si>
+    <t>将她当前阶级的人气全部转移给另一个阶级相同或更低的女孩。消耗理智：4，邪恶值+2</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1269: new "She will absorb wounds from all girls and heal them"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1273: new "Her Bisexual preference will increase (larger effect)"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1277: new "Her Group preference will increase (larger effect)"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1281: new "She is a lot less likely to refuse working, training or whoring"</t>
+  </si>
+  <si>
+    <t>她的训练服从要求-70，性行为激活要求-35，全部偏好至少为非常勉强。持续3天，消耗理智：5，邪恶值+2</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1285: new "Share more XP with all girls of lesser level"</t>
+  </si>
+  <si>
+    <t>将她的50%经验值均摊给所有等级更低的女孩。消耗理智：3，邪恶值+1</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1289: new "Share more JP with all girls of lesser job level"</t>
+  </si>
+  <si>
+    <t>将她的50%职业经验值均摊给所有职业等级相同或更低的女孩。消耗理智：3，邪恶值+1</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1293: new "Worse memories"</t>
+  </si>
+  <si>
+    <t>痛苦回忆</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1297: new "Punishment is a lot more efficient on all girls."</t>
+  </si>
+  <si>
+    <t>惩罚性回忆对所有女孩的影响+300%，持续7天，消耗理智：4，邪恶值+2</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1301: new "Love/Hate and Fear/Trust levels are set back to zero"</t>
+  </si>
+  <si>
+    <t>好感/仇恨，恐惧/信任全部归零. 消耗理智：4，邪恶值+2</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1305: new "Attempts to kidnap a free girl, may get hurt in the process. Higher success chances"</t>
+  </si>
+  <si>
+    <t>尝试绑架一个自由女孩，成功率与双方的防御和阶级有关（超载补正+2），失败时可能受伤。消耗理智：4，邪恶值+2</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1309: new "She will go to the city at night and attempt capturing a free girl. Her chances improve with her defense level (supercharged: higher chance of success)."</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1313: new "Leeches all of her Love and raises Love for all girls in the city"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1317: new "Remove fixation"</t>
+  </si>
+  <si>
+    <t>厌恶消除</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1321: new "Removes her negative fixation instantly. Exhausts her"</t>
+  </si>
+  <si>
+    <t>立即消除选择的厌恶行为，使目标疲惫。消耗理智：4，邪恶值+2</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1325: new "Summon large demon to fuck her, boosting two random sex skills, prestige and girl XP even more"</t>
+  </si>
+  <si>
+    <t>召唤上级恶魔侵犯她，随机2种性技提高1d11+9，同时获得经验和主角声望。消耗理智：6，邪恶值+3  *不影响处子之身</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1329: new "Common rooms in the brothel can accomodate a lot more customers"</t>
+  </si>
+  <si>
+    <t>所有营业设施最大人数提升50%，持续5天，理智消耗：4，邪恶值+2</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1333: new "She will remain naked at all times. Temporary boost to main skills"</t>
+  </si>
+  <si>
+    <t>她将在10天内保持裸体，魅力、外貌、身材、优雅+5；理智消耗：3，邪恶值+1</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1337: new "+2 to Main Character Charisma"</t>
+  </si>
+  <si>
+    <t>主角魅力+2，持续7天。理智消耗：3，邪恶值+1</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1341: new "+2 to Main Character Speed"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1345: new "+2 to Main Character Strength"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1349: new "+2 to Main Character Spirit"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1353: new "Averages out Beauty, Body, Charm &amp; Refinement skills + permanent skill boost"</t>
+  </si>
+  <si>
+    <t>将她的魅力、外貌、身材、优雅调整到平均值附近，并永久提升20%；</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1357: new "Beauty, Body, Charm and Refinement skills converge on their average value, then receive a permanent boost."</t>
+  </si>
+  <si>
+    <t>理智消耗：2，邪恶值+1。*平均后的小数位会转化为可分配的属性点数</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1361: new "Averages out Libido, Obedience, Constitution, Sensitivity skills + permanent skill boost"</t>
+  </si>
+  <si>
+    <t>将她的敏感、性欲、体格、服从调整到平均值附近，并永久提升20%；</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1365: new "Libido, Obedience, Constitution and Sensitivity skills converge on their average value, then receive a permanent boost."</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1369: new "Randomly shuffles the value of some of her skills (Beauty, Body, Charm &amp; Refinement), receiving a permanent boost"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1373: new "Beauty, Body, Charm and Refinement skill values are shuffled randomly, receiving a permanent boost"</t>
+  </si>
+  <si>
+    <t>*属性可能超过当前上限 *超载无效</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1377: new "Randomly shuffles the value of some of her skills (Libido, Obedience, Constitution, Sensitivity), receiving a permanent boost"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1381: new "Libido, Obedience, Constitution and Sensitivity skill values are shuffled randomly, receiving a permanent boost"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1385: new "Discard hand and redraw with +2 extra cards"</t>
+  </si>
+  <si>
+    <t>舍弃全部手牌，重新抽(7)张卡；理智消耗：2，邪恶值+1</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1389: new "Receive 4-12 Yellow Mojo, very high sanity cost"</t>
+  </si>
+  <si>
+    <t>获得 4d3 黄色巫灵；理智消耗：5，邪恶值+2</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1393: new "Receive 4-12 Red Mojo, very high sanity cost"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1397: new "Receive 4-12 Blue Mojo, very high sanity cost"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1401: new "Receive 4-12 Green Mojo, very high sanity cost"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1405: new "Leeches some of her skills (Service &amp; Sex) to another girl (larger effect)"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1409: new "Leeches more of her service and sex skills and transfers them to a girl of equal or lower rank"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1413: new "Leeches some of her skills (Anal &amp; Service) to another girl (larger effect)"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1417: new "Leeches more of her anal and fetish skills and transfers them to a girl of equal or lower rank"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1421: new "Her Service preference will increase (larger effect)"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1425: new "Her Sex preference will increase (larger effect)"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1429: new "Her Anal preference will increase (larger effect)"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1433: new "Her Fetish preference will increase (larger effect)"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1437: new "Shares XP with all minions of the same type"</t>
+  </si>
+  <si>
+    <t>训练农场某一类的所有仆从，使祂们获得（女孩阶级*5）经验；女孩损失50经验值。理智消耗：4，邪恶值+2</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1441: new "Target another girl. She will have the same chances of accepting acts the conduit accepts"</t>
+  </si>
+  <si>
+    <t>选择另一个女孩，使她的服从判定结果上升到与触媒女孩相同，持续5天，理智消耗：1</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1445: new "Leeches some of her skills (Beauty &amp; Body) to another girl (larger effect)"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1449: new "Leeches more of her beauty and body skills and transfers them to a girl of equal or lower rank"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1453: new "Leeches some of her skills (Charm &amp; Refinement) to another girl (larger effect)"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1457: new "Leeches more of her charm and refinement skills and transfers them to a girl of equal or lower rank"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1461: new "Leeches more of her sensitivity and constitution skills and transfers them to a girl of equal or lower rank (larger effect)"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1465: new "Leeches some of her skills (Libido &amp; Obedience) to another girl (larger effect)"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1469: new "Leeches more of her libido and obedience skills and transfers them to a girl of equal or lower rank"</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1473: new "All hypnosis attempts on all girls are more likely to succeed"</t>
+  </si>
+  <si>
+    <t>所有女孩的催眠判定补正+3，持续5天，理智消耗：2</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1477: new "Swaps colored mojo to purple mojo at a rate of 3 for 2"</t>
+  </si>
+  <si>
+    <t>以3:2的比例将任意数量的彩色巫灵兑换成紫色巫灵；理智消耗：2，邪恶值+1</t>
+  </si>
+  <si>
+    <t>BKpowers.rpy:1481: new "Her Naked preference will increase (larger effect)"</t>
+  </si>
+  <si>
+    <t>暗黑幻想：侍奉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗黑幻想：性交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗黑幻想：肛交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角速度+1，持续7天。理智消耗：2，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角力量+1，持续7天。理智消耗：2，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角魔力+1，持续7天。理智消耗：2，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得 2d3 黄色巫灵；理智消耗：3，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得 2d3 红色巫灵；理智消耗：3，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得 2d3 蓝色巫灵；理智消耗：3，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得 2d3 绿色巫灵；理智消耗：3，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将她的外貌、身材属性的25%转移给一个阶级相同或更低的女孩。消耗理智：2，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将她的侍奉、性交属性的25%转移给一个阶级相同或更低的女孩。消耗理智：2，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将她的肛交、调教属性的25%转移给一个阶级相同或更低的女孩。消耗理智：2，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治愈一个受伤的女孩，并把伤害转移到自己身上。消耗理智：3，邪恶值+1。 *转移至多6点伤害，免疫特性有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 成功时，邪恶值额外+2； * 如果目标认识主角，会额外增加邪恶值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定地点的所有女孩获得她的好感值的15%-30%，她的好感值归零；消耗理智：2，邪恶值+1。 *只能选择好感&gt;6的女孩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将她的魅力、优雅属性的25%转移给一个阶级相同或更低的女孩。消耗理智：2，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将她的敏感、体格属性的25%转移给一个阶级相同或更低的女孩。消耗理智：2，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将她的性欲、服从属性的25%转移给一个阶级相同或更低的女孩。消耗理智：2，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗黑幻想：露出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角速度+2，持续7天。理智消耗：3，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角力量+2，持续7天。理智消耗：3，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角魔力+2，持续7天。理智消耗：3，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治愈所有受伤的女孩，并把伤害全部转移到自己身上，消耗理智：5，邪恶值+2。 *每个女孩转移至多6点伤害，免疫特性有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定区域的所有女孩获得她的好感值的15%-30%，她的好感值归零；消耗理智：4，邪恶值+2。 *只能选择好感&gt;6的女孩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得 4d3 红色巫灵；理智消耗：5，邪恶值+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得 4d3 蓝色巫灵；理智消耗：5，邪恶值+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得 4d3 绿色巫灵；理智消耗：5，邪恶值+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将她的侍奉、性交属性的50%转移给一个阶级相同或更低的女孩。消耗理智：3，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将她的肛交、调教属性的50%转移给一个阶级相同或更低的女孩。消耗理智：3，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将她的外貌、身材属性的50%转移给一个阶级相同或更低的女孩。消耗理智：3，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将她的性欲、服从属性的50%转移给一个阶级相同或更低的女孩。消耗理智：3，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将她的敏感、体格属性的50%转移给一个阶级相同或更低的女孩。消耗理智：3，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将她的魅力、优雅属性的50%转移给一个阶级相同或更低的女孩。消耗理智：3，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性吸取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉棒教育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星好评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春销狂人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野性呼唤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双飞偏好+2.5, 消耗理智：2，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群交偏好+2.5, 消耗理智：2，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侍奉偏好+2.5, 消耗理智：2，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性交偏好+2.5, 消耗理智：2，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肛交偏好+2.5, 消耗理智：2，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调教偏好+2.5, 消耗理智：2，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>露出偏好+2.5, 消耗理智：2，邪恶值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侍奉偏好+5, 消耗理智：4，邪恶值+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性交偏好+5, 消耗理智：4，邪恶值+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肛交偏好+5, 消耗理智：4，邪恶值+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调教偏好+5, 消耗理智：4，邪恶值+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>露出偏好+5, 消耗理智：4，邪恶值+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双飞偏好+5, 消耗理智：4，邪恶值+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群交偏好+5, 消耗理智：4，邪恶值+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>old</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>召唤豪鬼</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1193: new "Raises brothel security"</t>
-  </si>
-  <si>
-    <t>青楼安全+1，持续5(10)天，理智消耗：1(2)，邪恶值+0(1)</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1197: new "Haniwa"</t>
-  </si>
-  <si>
-    <t>召唤哈尼</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1201: new "Raises brothel maintenance"</t>
-  </si>
-  <si>
-    <t>青楼清洁+1，持续5(10)天，理智消耗：1(2)，邪恶值+0(1)</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1205: new "Demonette"</t>
-  </si>
-  <si>
-    <t>召唤魅魔</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1209: new "Raises brothel advertising"</t>
-  </si>
-  <si>
-    <t>青楼宣传+1，持续5(10)天，理智消耗：1(2)，邪恶值+0(1)</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1213: new "Summon this absolutely adorable and utterly HARMLESS not-at-all evil pet. Pinky swear."</t>
-  </si>
-  <si>
-    <t>召唤一只人畜无害，狂霸酷炫的宠物，骗你是小狗。消耗(全部)理智，邪恶值+3</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1217: new "Large gold generation for the brothel, instant loss of sanity."</t>
-  </si>
-  <si>
-    <t>获得大量金币，数量与女孩的阶级、接待人数有关（收益翻倍）。青楼人气+(50)。消耗(全部)理智，邪恶值+3</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1221: new "Large gain of Obedience and Libido for all girls, instant loss of sanity."</t>
-  </si>
-  <si>
-    <t>所有女孩的服从和性欲+2d6（收益翻倍）。青楼人气+(50)。消耗全部理智，邪恶值+3</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1225: new "Fear generation for all girls with a large mojo yield, instant loss of sanity."</t>
-  </si>
-  <si>
-    <t>所有女孩的恐惧+2d4（收益翻倍），同时产出巫灵。青楼人气+(50)。消耗全部理智，邪恶值+3</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1229: new "Reset all perks and perk trees."</t>
-  </si>
-  <si>
-    <t>重置她的所有天赋和天赋树。消耗理智: 6，邪恶值+3</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1233: new "Regular MC interactions generate Fear. Fear raises faster for all girls. Lasts 10 days."</t>
-  </si>
-  <si>
-    <t>所有女孩的恐惧收益+25%，和女孩进行的所有交互行为都额外+1恐惧值；持续(10)天。消耗理智：5，邪恶值+2</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1237: new "Alters her personality, you can influence the outcome."</t>
-  </si>
-  <si>
-    <t>重新选择她的性格。消耗理智：5，邪恶值+2</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1241: new "Girl swaps her negative Trait for a new one, you can influence the outcome"</t>
-  </si>
-  <si>
-    <t>重新选择她的负面特质；消耗理智：5，邪恶值+2</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1245: new "Turn all free girls in the brothel or farm into slaves"</t>
-  </si>
-  <si>
-    <t>让青楼和农场的所有自由女孩全部变为奴隶；消耗理智：6，邪恶值+3</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1249: new "+2 satisfaction for all customers"</t>
-  </si>
-  <si>
-    <t>所有顾客的满意度+2，持续7天；消耗理智：5，邪恶值+2</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1253: new "Restores her max energy level to all brothel girls, exhausts and hurts her"</t>
-  </si>
-  <si>
-    <t>所有女孩恢复等同于她体力上限的体力，她的体力归零并受伤1d3天。消耗理智：5，邪恶值+2</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1257: new "All girls will receive more gains from classes and quests"</t>
-  </si>
-  <si>
-    <t>所有女孩的课程和任务收益+50%，持续7天。消耗理智：6，邪恶值+3</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1261: new "Farm training and fear generation will be more efficient for all girls"</t>
-  </si>
-  <si>
-    <t>所有女孩在农场的偏好和恐惧收益+100%，持续7天；消耗理智：4，邪恶值+2</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1265: new "All of her reputation will be transferred to another girl of lower or similar rank"</t>
-  </si>
-  <si>
-    <t>将她当前阶级的人气全部转移给另一个阶级相同或更低的女孩。消耗理智：4，邪恶值+2</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1269: new "She will absorb wounds from all girls and heal them"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1273: new "Her Bisexual preference will increase (larger effect)"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1277: new "Her Group preference will increase (larger effect)"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1281: new "She is a lot less likely to refuse working, training or whoring"</t>
-  </si>
-  <si>
-    <t>她的训练服从要求-70，性行为激活要求-35，全部偏好至少为非常勉强。持续3天，消耗理智：5，邪恶值+2</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1285: new "Share more XP with all girls of lesser level"</t>
-  </si>
-  <si>
-    <t>将她的50%经验值均摊给所有等级更低的女孩。消耗理智：3，邪恶值+1</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1289: new "Share more JP with all girls of lesser job level"</t>
-  </si>
-  <si>
-    <t>将她的50%职业经验值均摊给所有职业等级相同或更低的女孩。消耗理智：3，邪恶值+1</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1293: new "Worse memories"</t>
-  </si>
-  <si>
-    <t>痛苦回忆</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1297: new "Punishment is a lot more efficient on all girls."</t>
-  </si>
-  <si>
-    <t>惩罚性回忆对所有女孩的影响+300%，持续7天，消耗理智：4，邪恶值+2</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1301: new "Love/Hate and Fear/Trust levels are set back to zero"</t>
-  </si>
-  <si>
-    <t>好感/仇恨，恐惧/信任全部归零. 消耗理智：4，邪恶值+2</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1305: new "Attempts to kidnap a free girl, may get hurt in the process. Higher success chances"</t>
-  </si>
-  <si>
-    <t>尝试绑架一个自由女孩，成功率与双方的防御和阶级有关（超载补正+2），失败时可能受伤。消耗理智：4，邪恶值+2</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1309: new "She will go to the city at night and attempt capturing a free girl. Her chances improve with her defense level (supercharged: higher chance of success)."</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1313: new "Leeches all of her Love and raises Love for all girls in the city"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1317: new "Remove fixation"</t>
-  </si>
-  <si>
-    <t>厌恶消除</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1321: new "Removes her negative fixation instantly. Exhausts her"</t>
-  </si>
-  <si>
-    <t>立即消除选择的厌恶行为，使目标疲惫。消耗理智：4，邪恶值+2</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1325: new "Summon large demon to fuck her, boosting two random sex skills, prestige and girl XP even more"</t>
-  </si>
-  <si>
-    <t>召唤上级恶魔侵犯她，随机2种性技提高1d11+9，同时获得经验和主角声望。消耗理智：6，邪恶值+3  *不影响处子之身</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1329: new "Common rooms in the brothel can accomodate a lot more customers"</t>
-  </si>
-  <si>
-    <t>所有营业设施最大人数提升50%，持续5天，理智消耗：4，邪恶值+2</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1333: new "She will remain naked at all times. Temporary boost to main skills"</t>
-  </si>
-  <si>
-    <t>她将在10天内保持裸体，魅力、外貌、身材、优雅+5；理智消耗：3，邪恶值+1</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1337: new "+2 to Main Character Charisma"</t>
-  </si>
-  <si>
-    <t>主角魅力+2，持续7天。理智消耗：3，邪恶值+1</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1341: new "+2 to Main Character Speed"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1345: new "+2 to Main Character Strength"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1349: new "+2 to Main Character Spirit"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1353: new "Averages out Beauty, Body, Charm &amp; Refinement skills + permanent skill boost"</t>
-  </si>
-  <si>
-    <t>将她的魅力、外貌、身材、优雅调整到平均值附近，并永久提升20%；</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1357: new "Beauty, Body, Charm and Refinement skills converge on their average value, then receive a permanent boost."</t>
-  </si>
-  <si>
-    <t>理智消耗：2，邪恶值+1。*平均后的小数位会转化为可分配的属性点数</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1361: new "Averages out Libido, Obedience, Constitution, Sensitivity skills + permanent skill boost"</t>
-  </si>
-  <si>
-    <t>将她的敏感、性欲、体格、服从调整到平均值附近，并永久提升20%；</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1365: new "Libido, Obedience, Constitution and Sensitivity skills converge on their average value, then receive a permanent boost."</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1369: new "Randomly shuffles the value of some of her skills (Beauty, Body, Charm &amp; Refinement), receiving a permanent boost"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1373: new "Beauty, Body, Charm and Refinement skill values are shuffled randomly, receiving a permanent boost"</t>
-  </si>
-  <si>
-    <t>*属性可能超过当前上限 *超载无效</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1377: new "Randomly shuffles the value of some of her skills (Libido, Obedience, Constitution, Sensitivity), receiving a permanent boost"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1381: new "Libido, Obedience, Constitution and Sensitivity skill values are shuffled randomly, receiving a permanent boost"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1385: new "Discard hand and redraw with +2 extra cards"</t>
-  </si>
-  <si>
-    <t>舍弃全部手牌，重新抽(7)张卡；理智消耗：2，邪恶值+1</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1389: new "Receive 4-12 Yellow Mojo, very high sanity cost"</t>
-  </si>
-  <si>
-    <t>获得 4d3 黄色巫灵；理智消耗：5，邪恶值+2</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1393: new "Receive 4-12 Red Mojo, very high sanity cost"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1397: new "Receive 4-12 Blue Mojo, very high sanity cost"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1401: new "Receive 4-12 Green Mojo, very high sanity cost"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1405: new "Leeches some of her skills (Service &amp; Sex) to another girl (larger effect)"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1409: new "Leeches more of her service and sex skills and transfers them to a girl of equal or lower rank"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1413: new "Leeches some of her skills (Anal &amp; Service) to another girl (larger effect)"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1417: new "Leeches more of her anal and fetish skills and transfers them to a girl of equal or lower rank"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1421: new "Her Service preference will increase (larger effect)"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1425: new "Her Sex preference will increase (larger effect)"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1429: new "Her Anal preference will increase (larger effect)"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1433: new "Her Fetish preference will increase (larger effect)"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1437: new "Shares XP with all minions of the same type"</t>
-  </si>
-  <si>
-    <t>训练农场某一类的所有仆从，使祂们获得（女孩阶级*5）经验；女孩损失50经验值。理智消耗：4，邪恶值+2</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1441: new "Target another girl. She will have the same chances of accepting acts the conduit accepts"</t>
-  </si>
-  <si>
-    <t>选择另一个女孩，使她的服从判定结果上升到与触媒女孩相同，持续5天，理智消耗：1</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1445: new "Leeches some of her skills (Beauty &amp; Body) to another girl (larger effect)"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1449: new "Leeches more of her beauty and body skills and transfers them to a girl of equal or lower rank"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1453: new "Leeches some of her skills (Charm &amp; Refinement) to another girl (larger effect)"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1457: new "Leeches more of her charm and refinement skills and transfers them to a girl of equal or lower rank"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1461: new "Leeches more of her sensitivity and constitution skills and transfers them to a girl of equal or lower rank (larger effect)"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1465: new "Leeches some of her skills (Libido &amp; Obedience) to another girl (larger effect)"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1469: new "Leeches more of her libido and obedience skills and transfers them to a girl of equal or lower rank"</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1473: new "All hypnosis attempts on all girls are more likely to succeed"</t>
-  </si>
-  <si>
-    <t>所有女孩的催眠判定补正+3，持续5天，理智消耗：2</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1477: new "Swaps colored mojo to purple mojo at a rate of 3 for 2"</t>
-  </si>
-  <si>
-    <t>以3:2的比例将任意数量的彩色巫灵兑换成紫色巫灵；理智消耗：2，邪恶值+1</t>
-  </si>
-  <si>
-    <t>BKpowers.rpy:1481: new "Her Naked preference will increase (larger effect)"</t>
-  </si>
-  <si>
-    <t>暗黑幻想：侍奉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗黑幻想：性交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗黑幻想：肛交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主角速度+1，持续7天。理智消耗：2，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主角力量+1，持续7天。理智消耗：2，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主角魔力+1，持续7天。理智消耗：2，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得 2d3 黄色巫灵；理智消耗：3，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得 2d3 红色巫灵；理智消耗：3，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得 2d3 蓝色巫灵；理智消耗：3，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得 2d3 绿色巫灵；理智消耗：3，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将她的外貌、身材属性的25%转移给一个阶级相同或更低的女孩。消耗理智：2，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将她的侍奉、性交属性的25%转移给一个阶级相同或更低的女孩。消耗理智：2，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将她的肛交、调教属性的25%转移给一个阶级相同或更低的女孩。消耗理智：2，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治愈一个受伤的女孩，并把伤害转移到自己身上。消耗理智：3，邪恶值+1。 *转移至多6点伤害，免疫特性有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 成功时，邪恶值额外+2； * 如果目标认识主角，会额外增加邪恶值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定地点的所有女孩获得她的好感值的15%-30%，她的好感值归零；消耗理智：2，邪恶值+1。 *只能选择好感&gt;6的女孩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将她的魅力、优雅属性的25%转移给一个阶级相同或更低的女孩。消耗理智：2，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将她的敏感、体格属性的25%转移给一个阶级相同或更低的女孩。消耗理智：2，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将她的性欲、服从属性的25%转移给一个阶级相同或更低的女孩。消耗理智：2，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗黑幻想：露出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主角速度+2，持续7天。理智消耗：3，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主角力量+2，持续7天。理智消耗：3，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主角魔力+2，持续7天。理智消耗：3，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治愈所有受伤的女孩，并把伤害全部转移到自己身上，消耗理智：5，邪恶值+2。 *每个女孩转移至多6点伤害，免疫特性有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定区域的所有女孩获得她的好感值的15%-30%，她的好感值归零；消耗理智：4，邪恶值+2。 *只能选择好感&gt;6的女孩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得 4d3 红色巫灵；理智消耗：5，邪恶值+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得 4d3 蓝色巫灵；理智消耗：5，邪恶值+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得 4d3 绿色巫灵；理智消耗：5，邪恶值+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将她的侍奉、性交属性的50%转移给一个阶级相同或更低的女孩。消耗理智：3，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将她的肛交、调教属性的50%转移给一个阶级相同或更低的女孩。消耗理智：3，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将她的外貌、身材属性的50%转移给一个阶级相同或更低的女孩。消耗理智：3，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将她的性欲、服从属性的50%转移给一个阶级相同或更低的女孩。消耗理智：3，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将她的敏感、体格属性的50%转移给一个阶级相同或更低的女孩。消耗理智：3，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将她的魅力、优雅属性的50%转移给一个阶级相同或更低的女孩。消耗理智：3，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性吸取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肉棒教育</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五星好评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>春销狂人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>野性呼唤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双飞偏好+2.5, 消耗理智：2，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群交偏好+2.5, 消耗理智：2，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侍奉偏好+2.5, 消耗理智：2，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性交偏好+2.5, 消耗理智：2，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肛交偏好+2.5, 消耗理智：2，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调教偏好+2.5, 消耗理智：2，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>露出偏好+2.5, 消耗理智：2，邪恶值+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侍奉偏好+5, 消耗理智：4，邪恶值+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性交偏好+5, 消耗理智：4，邪恶值+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肛交偏好+5, 消耗理智：4，邪恶值+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调教偏好+5, 消耗理智：4，邪恶值+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>露出偏好+5, 消耗理智：4，邪恶值+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双飞偏好+5, 消耗理智：4，邪恶值+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群交偏好+5, 消耗理智：4，邪恶值+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>old</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>new</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1521,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1533,10 +1534,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1" t="s">
         <v>371</v>
-      </c>
-      <c r="B1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -1704,7 +1705,7 @@
         <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -1736,7 +1737,7 @@
         <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -1752,7 +1753,7 @@
         <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -1808,7 +1809,7 @@
         <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -1824,7 +1825,7 @@
         <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -1840,7 +1841,7 @@
         <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -1944,7 +1945,7 @@
         <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
@@ -1960,7 +1961,7 @@
         <v>98</v>
       </c>
       <c r="B54" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
@@ -2016,7 +2017,7 @@
         <v>111</v>
       </c>
       <c r="B61" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -2056,7 +2057,7 @@
         <v>120</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
@@ -2072,7 +2073,7 @@
         <v>123</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
@@ -2088,7 +2089,7 @@
         <v>126</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
@@ -2200,7 +2201,7 @@
         <v>151</v>
       </c>
       <c r="B84" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
@@ -2216,7 +2217,7 @@
         <v>154</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
@@ -2232,7 +2233,7 @@
         <v>157</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
@@ -2248,7 +2249,7 @@
         <v>160</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
@@ -2256,7 +2257,7 @@
         <v>161</v>
       </c>
       <c r="B91" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
@@ -2264,7 +2265,7 @@
         <v>162</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
@@ -2277,7 +2278,7 @@
         <v>164</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
@@ -2290,7 +2291,7 @@
         <v>166</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
@@ -2298,7 +2299,7 @@
         <v>167</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
@@ -2306,7 +2307,7 @@
         <v>168</v>
       </c>
       <c r="B98" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
@@ -2314,7 +2315,7 @@
         <v>169</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
@@ -2322,7 +2323,7 @@
         <v>170</v>
       </c>
       <c r="B100" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
@@ -2330,7 +2331,7 @@
         <v>171</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
@@ -2346,7 +2347,7 @@
         <v>174</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
@@ -2386,52 +2387,64 @@
         <v>183</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>184</v>
       </c>
+      <c r="B109" s="1" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="B111" s="1" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="B113" s="1" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="B115" s="1" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
@@ -2470,7 +2483,7 @@
         <v>199</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
@@ -2478,7 +2491,7 @@
         <v>200</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
@@ -2486,244 +2499,244 @@
         <v>201</v>
       </c>
       <c r="B122" t="s">
-        <v>202</v>
+        <v>372</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B123" t="s">
         <v>203</v>
-      </c>
-      <c r="B123" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B124" t="s">
         <v>205</v>
-      </c>
-      <c r="B124" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B125" t="s">
         <v>207</v>
-      </c>
-      <c r="B125" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B126" t="s">
         <v>209</v>
-      </c>
-      <c r="B126" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B127" t="s">
         <v>211</v>
-      </c>
-      <c r="B127" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="129" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="130" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="131" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="132" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="133" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="134" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="135" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="136" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="137" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="138" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="139" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="140" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="141" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="142" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="143" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="144" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="145" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="146" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="147" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="148" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="149" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="150" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="151" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="152" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>95</v>
@@ -2731,119 +2744,119 @@
     </row>
     <row r="153" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="154" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="155" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="156" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="157" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B157" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="158" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B158" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="159" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B159" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="160" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="161" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="162" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="163" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="164" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="165" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="166" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="167" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>139</v>
@@ -2851,15 +2864,15 @@
     </row>
     <row r="168" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B168" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="169" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>143</v>
@@ -2867,195 +2880,210 @@
     </row>
     <row r="170" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="171" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B171" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="172" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B172" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="173" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="174" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="175" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="176" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="177" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="178" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="179" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="180" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="181" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A181" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="182" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="183" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="184" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A184" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B184" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="185" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A185" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B185" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="186" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A186" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="187" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="188" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="189" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A189" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="190" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A190" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="191" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A191" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="192" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="193" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A193" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B193" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="194" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A194" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B194" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="195" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A195" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
